--- a/China_Acc_Results/Result/Raster_Density_population.xlsx
+++ b/China_Acc_Results/Result/Raster_Density_population.xlsx
@@ -502,10 +502,10 @@
         <v>0.1188063025474548</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1250387579202652</v>
+        <v>0.1247913017868996</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1230308637022972</v>
+        <v>0.1228647083044052</v>
       </c>
     </row>
     <row r="3">
@@ -818,28 +818,28 @@
         <v>0.1697054749080053</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2057252457554216</v>
+        <v>0.2051219784116775</v>
       </c>
       <c r="F11" t="n">
         <v>0.204598169752269</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1774177915944134</v>
+        <v>0.1774268087298891</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1759390714760988</v>
+        <v>0.1759381048129172</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1755010110331728</v>
+        <v>0.17550008587864</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1759810757220817</v>
+        <v>0.1759801348829358</v>
       </c>
       <c r="K11" t="n">
-        <v>0.174136339415791</v>
+        <v>0.1741570397814068</v>
       </c>
       <c r="L11" t="n">
-        <v>0.164638443101416</v>
+        <v>0.1646339043844721</v>
       </c>
     </row>
     <row r="12">
@@ -949,7 +949,7 @@
         <v>0.138827383518219</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1447683870792389</v>
+        <v>0.1454265713691711</v>
       </c>
     </row>
     <row r="15">
@@ -1080,22 +1080,22 @@
         <v>0.08674237877130508</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05579220876097679</v>
+        <v>0.05578496307134628</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05113255605101585</v>
+        <v>0.05136295780539513</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05075941607356071</v>
+        <v>0.05097790434956551</v>
       </c>
       <c r="J18" t="n">
-        <v>0.051411222666502</v>
+        <v>0.05140749365091324</v>
       </c>
       <c r="K18" t="n">
         <v>0.0496077723801136</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04524311795830727</v>
+        <v>0.04523599520325661</v>
       </c>
     </row>
     <row r="19">
@@ -1189,19 +1189,19 @@
         <v>0.1317537277936935</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1251395344734192</v>
+        <v>0.1251655369997025</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1221097931265831</v>
+        <v>0.1221325397491455</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1214380264282227</v>
+        <v>0.1214611157774925</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1023833677172661</v>
+        <v>0.1023875176906586</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08443768322467804</v>
+        <v>0.08444008976221085</v>
       </c>
     </row>
     <row r="22">
@@ -1438,16 +1438,16 @@
         <v>0.1345851719379425</v>
       </c>
       <c r="G28" t="n">
-        <v>0.128182590007782</v>
+        <v>0.1281179040670395</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1295203417539597</v>
+        <v>0.129444807767868</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1239195615053177</v>
+        <v>0.1238530725240707</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1219781786203384</v>
+        <v>0.1219267994165421</v>
       </c>
       <c r="K28" t="n">
         <v>0.09542783349752426</v>
@@ -1486,10 +1486,10 @@
         <v>0.09466587752103806</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1071450337767601</v>
+        <v>0.1071565970778465</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1043879166245461</v>
+        <v>0.1043952032923698</v>
       </c>
     </row>
     <row r="30">
@@ -1520,10 +1520,10 @@
         <v>0.1508908328376239</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1436821541209543</v>
+        <v>0.143685073745723</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1407008150713322</v>
+        <v>0.14070372910295</v>
       </c>
       <c r="K30" t="n">
         <v>0.1301966742946627</v>
@@ -1548,10 +1548,10 @@
         <v>0.05770428478717804</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1040807142853737</v>
+        <v>0.1058200374245644</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08402281254529953</v>
+        <v>0.0861348956823349</v>
       </c>
       <c r="G31" t="n">
         <v>0.1176969558000565</v>
@@ -1569,7 +1569,7 @@
         <v>0.1136757060885429</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1143940910696983</v>
+        <v>0.1143978089094162</v>
       </c>
     </row>
     <row r="32">
@@ -1786,22 +1786,22 @@
         <v>0.2116055190563202</v>
       </c>
       <c r="G37" t="n">
-        <v>0.156850278377533</v>
+        <v>0.156873032450676</v>
       </c>
       <c r="H37" t="n">
-        <v>0.157387837767601</v>
+        <v>0.1574077755212784</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1574636548757553</v>
+        <v>0.157480388879776</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1581928133964539</v>
+        <v>0.158209815621376</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1270090788602829</v>
+        <v>0.1270156651735306</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1165398806333542</v>
+        <v>0.1165420338511467</v>
       </c>
     </row>
     <row r="38">
@@ -1908,10 +1908,10 @@
         <v>0.2341270595788956</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2037635445594788</v>
+        <v>0.2023985832929611</v>
       </c>
       <c r="L40" t="n">
-        <v>0.190091609954834</v>
+        <v>0.1890583634376526</v>
       </c>
     </row>
     <row r="41">
@@ -1951,7 +1951,7 @@
         <v>0.05800585317621901</v>
       </c>
       <c r="L41" t="n">
-        <v>0.05127922220387244</v>
+        <v>0.0512831214634804</v>
       </c>
     </row>
     <row r="42">
@@ -2245,7 +2245,7 @@
         <v>0.1415181457996368</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1156421303749084</v>
+        <v>0.1155015602707863</v>
       </c>
     </row>
     <row r="50">
@@ -2319,7 +2319,7 @@
         <v>0.0959245263549275</v>
       </c>
       <c r="L51" t="n">
-        <v>0.08665376261367265</v>
+        <v>0.08665246404691737</v>
       </c>
     </row>
     <row r="52">
@@ -2462,7 +2462,7 @@
         <v>0.0397752186558001</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03963083190992673</v>
+        <v>0.03960501285922484</v>
       </c>
       <c r="L55" t="n">
         <v>0.03994661721571935</v>
@@ -2510,10 +2510,10 @@
         <v>0.2183859348297119</v>
       </c>
       <c r="K57" t="n">
-        <v>0.07713183760643005</v>
+        <v>0.07718019187450409</v>
       </c>
       <c r="L57" t="n">
-        <v>0.08698910474777222</v>
+        <v>0.08701258152723312</v>
       </c>
     </row>
     <row r="58">
@@ -2932,10 +2932,10 @@
         <v>0.07136737555265427</v>
       </c>
       <c r="K68" t="n">
-        <v>0.07072156667709351</v>
+        <v>0.07076314091682434</v>
       </c>
       <c r="L68" t="n">
-        <v>0.07637260109186172</v>
+        <v>0.07640206068754196</v>
       </c>
     </row>
     <row r="69">
@@ -3115,7 +3115,7 @@
         <v>0.05711326375603676</v>
       </c>
       <c r="L73" t="n">
-        <v>0.05881302431225777</v>
+        <v>0.05868273600935936</v>
       </c>
     </row>
     <row r="74">
@@ -3489,7 +3489,7 @@
         <v>0.05496494099497795</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04619402810931206</v>
+        <v>0.04620078951120377</v>
       </c>
     </row>
     <row r="84">
@@ -3566,7 +3566,7 @@
         <v>0.1608264297246933</v>
       </c>
       <c r="K85" t="n">
-        <v>0.125690370798111</v>
+        <v>0.1257233023643494</v>
       </c>
       <c r="L85" t="n">
         <v>0.1137229936186247</v>
@@ -3784,7 +3784,7 @@
         <v>0.08561762422323227</v>
       </c>
       <c r="K91" t="n">
-        <v>0.07683823257684708</v>
+        <v>0.07675062119960785</v>
       </c>
       <c r="L91" t="n">
         <v>0.07467076182365417</v>
@@ -3991,7 +3991,7 @@
         <v>0.0946929082274437</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09139666706323624</v>
+        <v>0.09142793715000153</v>
       </c>
     </row>
     <row r="98">
@@ -4461,7 +4461,7 @@
         <v>0.06567588293871432</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0657886644930132</v>
+        <v>0.06581064404443689</v>
       </c>
     </row>
     <row r="111">
@@ -4572,10 +4572,10 @@
         <v>0.07774621993303299</v>
       </c>
       <c r="K113" t="n">
-        <v>0.08301988989114761</v>
+        <v>0.08306221663951874</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07748670876026154</v>
+        <v>0.07748605310916901</v>
       </c>
     </row>
     <row r="114">
@@ -4675,7 +4675,7 @@
         <v>0.06994597613811493</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08471882343292236</v>
+        <v>0.08471714705228806</v>
       </c>
     </row>
     <row r="117">
@@ -4746,10 +4746,10 @@
         <v>0.07288163155317307</v>
       </c>
       <c r="K118" t="n">
-        <v>0.060957420617342</v>
+        <v>0.06095722317695618</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05616841465234756</v>
+        <v>0.05616786703467369</v>
       </c>
     </row>
     <row r="119">
@@ -4853,7 +4853,7 @@
         <v>0.1059768246218667</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1006844878113937</v>
+        <v>0.1007226703025555</v>
       </c>
     </row>
     <row r="122">
@@ -5245,19 +5245,19 @@
         <v>0.07342824339866638</v>
       </c>
       <c r="H132" t="n">
-        <v>0.08190406113862991</v>
+        <v>0.08191417902708054</v>
       </c>
       <c r="I132" t="n">
-        <v>0.08287238329648972</v>
+        <v>0.08288188278675079</v>
       </c>
       <c r="J132" t="n">
-        <v>0.08143370598554611</v>
+        <v>0.08144330978393555</v>
       </c>
       <c r="K132" t="n">
         <v>0.06974860280752182</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0598483718931675</v>
+        <v>0.05984653905034065</v>
       </c>
     </row>
     <row r="133">
@@ -5364,28 +5364,28 @@
         <v>0.1081124544143677</v>
       </c>
       <c r="E136" t="n">
-        <v>0.109572886199358</v>
+        <v>0.1095777161306417</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1090319840422103</v>
+        <v>0.1090389588167007</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1071582120575995</v>
+        <v>0.1071501607430104</v>
       </c>
       <c r="H136" t="n">
-        <v>0.10568908439657</v>
+        <v>0.1056845797175921</v>
       </c>
       <c r="I136" t="n">
-        <v>0.106342680116042</v>
+        <v>0.1063386190323588</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1061360492409205</v>
+        <v>0.1061319636018475</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1012510905655274</v>
+        <v>0.1012453495539509</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09813083366926612</v>
+        <v>0.09812343076460926</v>
       </c>
     </row>
     <row r="137">
@@ -5425,7 +5425,7 @@
         <v>0.06275768578052521</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1352309137582779</v>
+        <v>0.1351865530014038</v>
       </c>
     </row>
     <row r="138">
@@ -5493,13 +5493,13 @@
         <v>0.05768881738185883</v>
       </c>
       <c r="H139" t="n">
-        <v>0.06032631173729897</v>
+        <v>0.06032522022724152</v>
       </c>
       <c r="I139" t="n">
-        <v>0.05853807181119919</v>
+        <v>0.05853711813688278</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05940375477075577</v>
+        <v>0.05940278992056847</v>
       </c>
       <c r="K139" t="n">
         <v>0.04220685735344887</v>
@@ -5542,7 +5542,7 @@
         <v>0.03800828382372856</v>
       </c>
       <c r="K140" t="n">
-        <v>0.03983645886182785</v>
+        <v>0.03985236212611198</v>
       </c>
       <c r="L140" t="n">
         <v>0.0359136164188385</v>
@@ -5648,10 +5648,10 @@
         <v>0.1494206637144089</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1158089116215706</v>
+        <v>0.1157230585813522</v>
       </c>
       <c r="L143" t="n">
-        <v>0.107642725110054</v>
+        <v>0.1075855121016502</v>
       </c>
     </row>
     <row r="144">
@@ -5691,7 +5691,7 @@
         <v>0.05665232241153717</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05446616560220718</v>
+        <v>0.05447621271014214</v>
       </c>
     </row>
     <row r="145">
@@ -5907,7 +5907,7 @@
         <v>0.07841061800718307</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07995367795228958</v>
+        <v>0.07996093481779099</v>
       </c>
     </row>
     <row r="151">
@@ -6082,16 +6082,16 @@
         <v>0.1079168543219566</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1063522205234556</v>
+        <v>0.1063679083762997</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1057132308518227</v>
+        <v>0.1057302052614772</v>
       </c>
       <c r="I155" t="n">
-        <v>0.1084050546108354</v>
+        <v>0.1084200784947841</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1072823026482113</v>
+        <v>0.1072975143307093</v>
       </c>
       <c r="K155" t="n">
         <v>0.08877756754410136</v>
@@ -6137,7 +6137,7 @@
         <v>0.03250390291213989</v>
       </c>
       <c r="L156" t="n">
-        <v>0.02767741680145264</v>
+        <v>0.02767562307417393</v>
       </c>
     </row>
     <row r="157">
@@ -6251,10 +6251,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.1463630795478821</v>
+        <v>0.1481335461139679</v>
       </c>
       <c r="C160" t="n">
-        <v>0.144516259431839</v>
+        <v>0.1461137682199478</v>
       </c>
       <c r="D160" t="n">
         <v>0.1315476149320602</v>
@@ -6278,7 +6278,7 @@
         <v>0.09140434861183167</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07594110071659088</v>
+        <v>0.07593072205781937</v>
       </c>
       <c r="L160" t="n">
         <v>0.07508488744497299</v>
@@ -6505,7 +6505,7 @@
         <v>0.1387499272823334</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1132247224450111</v>
+        <v>0.1132470294833183</v>
       </c>
     </row>
     <row r="167">
@@ -6732,10 +6732,10 @@
         <v>0.1348393112421036</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1507834792137146</v>
+        <v>0.1507917791604996</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1283350884914398</v>
+        <v>0.1283397078514099</v>
       </c>
     </row>
     <row r="175">
@@ -6797,7 +6797,7 @@
         <v>0.1116354933773215</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1086383022226242</v>
+        <v>0.1086401038399191</v>
       </c>
     </row>
     <row r="177">
@@ -6867,7 +6867,7 @@
         <v>0.1331980377435684</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1287966966629028</v>
+        <v>0.1290909349918365</v>
       </c>
     </row>
     <row r="179">
@@ -6929,13 +6929,13 @@
         <v>0.04235018789768219</v>
       </c>
       <c r="H180" t="n">
-        <v>0.04317978024482727</v>
+        <v>0.04399790242314339</v>
       </c>
       <c r="I180" t="n">
-        <v>0.04362104088068008</v>
+        <v>0.0443655252456665</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04269581288099289</v>
+        <v>0.04345550015568733</v>
       </c>
       <c r="K180" t="n">
         <v>0.04112068191170692</v>
@@ -7135,7 +7135,7 @@
         <v>0.1045477837324142</v>
       </c>
       <c r="L186" t="n">
-        <v>0.09458725899457932</v>
+        <v>0.09458126127719879</v>
       </c>
     </row>
     <row r="187">
@@ -7363,7 +7363,7 @@
         <v>0.1018883064389229</v>
       </c>
       <c r="L193" t="n">
-        <v>0.110758401453495</v>
+        <v>0.1110411584377289</v>
       </c>
     </row>
     <row r="194">
@@ -7536,16 +7536,16 @@
         <v>0.06254822015762329</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05414300039410591</v>
+        <v>0.05415297299623489</v>
       </c>
       <c r="H198" t="n">
-        <v>0.05322901904582977</v>
+        <v>0.0532369501888752</v>
       </c>
       <c r="I198" t="n">
-        <v>0.05239558219909668</v>
+        <v>0.05240246281027794</v>
       </c>
       <c r="J198" t="n">
-        <v>0.05196952447295189</v>
+        <v>0.05197647586464882</v>
       </c>
       <c r="K198" t="n">
         <v>0.04819105938076973</v>
@@ -7838,10 +7838,10 @@
         <v>0.03604572638869286</v>
       </c>
       <c r="K206" t="n">
-        <v>0.03122426569461823</v>
+        <v>0.03122610598802567</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02909646742045879</v>
+        <v>0.02909782342612743</v>
       </c>
     </row>
     <row r="207">
@@ -8057,7 +8057,7 @@
         <v>0.05107701942324638</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04193904250860214</v>
+        <v>0.04193522408604622</v>
       </c>
     </row>
     <row r="213">
@@ -8164,10 +8164,10 @@
         <v>0.07606610655784607</v>
       </c>
       <c r="K215" t="n">
-        <v>0.07269594818353653</v>
+        <v>0.07263284921646118</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06865593791007996</v>
+        <v>0.06861449033021927</v>
       </c>
     </row>
     <row r="216">
@@ -8412,7 +8412,7 @@
         <v>0.3740687072277069</v>
       </c>
       <c r="G222" t="n">
-        <v>0.3221370279788971</v>
+        <v>0.3222462236881256</v>
       </c>
       <c r="H222" t="n">
         <v>0.3372439444065094</v>
@@ -8421,13 +8421,13 @@
         <v>0.329847127199173</v>
       </c>
       <c r="J222" t="n">
-        <v>0.3184142708778381</v>
+        <v>0.3184926807880402</v>
       </c>
       <c r="K222" t="n">
         <v>0.1919205337762833</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2062347994409743</v>
+        <v>0.2070746615910056</v>
       </c>
     </row>
     <row r="223">
@@ -8575,7 +8575,7 @@
         <v>0.09750621765851974</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09262916445732117</v>
+        <v>0.09264320880174637</v>
       </c>
     </row>
     <row r="227">
@@ -8683,7 +8683,7 @@
         <v>0.1102042272686958</v>
       </c>
       <c r="H229" t="n">
-        <v>0.1083096563816071</v>
+        <v>0.1078983321785927</v>
       </c>
       <c r="I229" t="n">
         <v>0.1020413190126419</v>
@@ -8805,7 +8805,7 @@
         <v>0.1201352030038834</v>
       </c>
       <c r="L232" t="n">
-        <v>0.09611415863037109</v>
+        <v>0.09611374884843826</v>
       </c>
     </row>
     <row r="233">
@@ -8845,7 +8845,7 @@
         <v>0.0852728858590126</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07450847327709198</v>
+        <v>0.07451294362545013</v>
       </c>
     </row>
     <row r="234">
@@ -8900,16 +8900,16 @@
         <v>0.04858563095331192</v>
       </c>
       <c r="G235" t="n">
-        <v>0.04939809069037437</v>
+        <v>0.04942863434553146</v>
       </c>
       <c r="H235" t="n">
-        <v>0.0603804774582386</v>
+        <v>0.0604025200009346</v>
       </c>
       <c r="I235" t="n">
-        <v>0.06013046577572823</v>
+        <v>0.06015156954526901</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0585869662463665</v>
+        <v>0.05860793963074684</v>
       </c>
       <c r="K235" t="n">
         <v>0.1058930978178978</v>
@@ -9011,7 +9011,7 @@
         <v>0.0518016442656517</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04883038625121117</v>
+        <v>0.04882078245282173</v>
       </c>
     </row>
     <row r="239">
@@ -9036,22 +9036,22 @@
         <v>0.10001440346241</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0859895721077919</v>
+        <v>0.08601014316082001</v>
       </c>
       <c r="H239" t="n">
-        <v>0.0828263908624649</v>
+        <v>0.08284230530261993</v>
       </c>
       <c r="I239" t="n">
-        <v>0.08259468525648117</v>
+        <v>0.08260069787502289</v>
       </c>
       <c r="J239" t="n">
-        <v>0.08193426579236984</v>
+        <v>0.0819481685757637</v>
       </c>
       <c r="K239" t="n">
-        <v>0.07149837166070938</v>
+        <v>0.07151223719120026</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06150410324335098</v>
+        <v>0.06150718033313751</v>
       </c>
     </row>
     <row r="240">
@@ -9176,16 +9176,16 @@
         <v>0.08800773322582245</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0820712074637413</v>
+        <v>0.08075626939535141</v>
       </c>
       <c r="H243" t="n">
-        <v>0.07795602828264236</v>
+        <v>0.07671370357275009</v>
       </c>
       <c r="I243" t="n">
-        <v>0.0757901519536972</v>
+        <v>0.0747014507651329</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0755937471985817</v>
+        <v>0.0744561105966568</v>
       </c>
       <c r="K243" t="n">
         <v>0.08025196939706802</v>
@@ -9340,7 +9340,7 @@
         <v>0.082741379737854</v>
       </c>
       <c r="K247" t="n">
-        <v>0.07140479236841202</v>
+        <v>0.07143174856901169</v>
       </c>
       <c r="L247" t="n">
         <v>0.06876558065414429</v>
@@ -9380,10 +9380,10 @@
         <v>0.07896141707897186</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1033999025821686</v>
+        <v>0.1033727377653122</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1020414158701897</v>
+        <v>0.1020306870341301</v>
       </c>
     </row>
     <row r="249">
@@ -9522,10 +9522,10 @@
         <v>0.1138418912887573</v>
       </c>
       <c r="K252" t="n">
-        <v>0.105738528072834</v>
+        <v>0.1057211682200432</v>
       </c>
       <c r="L252" t="n">
-        <v>0.09264570474624634</v>
+        <v>0.09258067607879639</v>
       </c>
     </row>
     <row r="253">
@@ -9664,10 +9664,10 @@
         <v>0.06307997185288289</v>
       </c>
       <c r="K256" t="n">
-        <v>0.07787918913281887</v>
+        <v>0.07786694476454643</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06507181284237848</v>
+        <v>0.06504199856765079</v>
       </c>
     </row>
     <row r="257">
@@ -9707,7 +9707,7 @@
         <v>0.07198046892881393</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06403633952140808</v>
+        <v>0.06404141336679459</v>
       </c>
     </row>
     <row r="258">
@@ -9766,10 +9766,10 @@
         <v>0.04573622345924377</v>
       </c>
       <c r="I259" t="n">
-        <v>0.04806769266724586</v>
+        <v>0.0480676144361496</v>
       </c>
       <c r="J259" t="n">
-        <v>0.05331453680992126</v>
+        <v>0.0533144623041153</v>
       </c>
       <c r="K259" t="n">
         <v>0.04211565852165222</v>
@@ -9871,25 +9871,25 @@
         <v>0.1258573681116104</v>
       </c>
       <c r="F262" t="n">
-        <v>0.1289813965559006</v>
+        <v>0.1289812177419662</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1048996299505234</v>
+        <v>0.104898139834404</v>
       </c>
       <c r="H262" t="n">
-        <v>0.1042065992951393</v>
+        <v>0.1042052507400513</v>
       </c>
       <c r="I262" t="n">
-        <v>0.102085255086422</v>
+        <v>0.1020840629935265</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1018086671829224</v>
+        <v>0.101807489991188</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1015407890081406</v>
+        <v>0.1015690788626671</v>
       </c>
       <c r="L262" t="n">
-        <v>0.09663540869951248</v>
+        <v>0.09665872901678085</v>
       </c>
     </row>
     <row r="263">
@@ -10269,7 +10269,7 @@
         <v>0.09208787977695465</v>
       </c>
       <c r="L272" t="n">
-        <v>0.08110938221216202</v>
+        <v>0.08105258643627167</v>
       </c>
     </row>
     <row r="273">
@@ -10380,10 +10380,10 @@
         <v>0.1148526147007942</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1140780746936798</v>
+        <v>0.1138104125857353</v>
       </c>
       <c r="L275" t="n">
-        <v>0.09345183521509171</v>
+        <v>0.09346103668212891</v>
       </c>
     </row>
     <row r="276">
@@ -10535,7 +10535,7 @@
         <v>0.0684126541018486</v>
       </c>
       <c r="H280" t="n">
-        <v>0.06991587579250336</v>
+        <v>0.06987299025058746</v>
       </c>
       <c r="I280" t="n">
         <v>0.06845107674598694</v>
@@ -10655,7 +10655,7 @@
         <v>0.1179683161633995</v>
       </c>
       <c r="L283" t="n">
-        <v>0.08699528127908707</v>
+        <v>0.08699315786361694</v>
       </c>
     </row>
     <row r="284">
@@ -10812,10 +10812,10 @@
         <v>0.07866045445318319</v>
       </c>
       <c r="K287" t="n">
-        <v>0.07089762802106149</v>
+        <v>0.07105338981825153</v>
       </c>
       <c r="L287" t="n">
-        <v>0.06634825776479114</v>
+        <v>0.06644884245891297</v>
       </c>
     </row>
     <row r="288">
@@ -10879,7 +10879,7 @@
         <v>0.08842591196298599</v>
       </c>
       <c r="L289" t="n">
-        <v>0.08765547722578049</v>
+        <v>0.08765500783920288</v>
       </c>
     </row>
     <row r="290">
@@ -11396,10 +11396,10 @@
         <v>0.07204500585794449</v>
       </c>
       <c r="K304" t="n">
-        <v>0.06499665230512619</v>
+        <v>0.0648391991853714</v>
       </c>
       <c r="L304" t="n">
-        <v>0.06335491687059402</v>
+        <v>0.06334827840328217</v>
       </c>
     </row>
     <row r="305">
@@ -11548,10 +11548,10 @@
         <v>0.04575072984703644</v>
       </c>
       <c r="K308" t="n">
-        <v>0.04639652779938837</v>
+        <v>0.04642412242827582</v>
       </c>
       <c r="L308" t="n">
-        <v>0.04034972216443727</v>
+        <v>0.04034889508654324</v>
       </c>
     </row>
     <row r="309">
@@ -11998,7 +11998,7 @@
         <v>0.08930110186338425</v>
       </c>
       <c r="G321" t="n">
-        <v>0.0720488578081131</v>
+        <v>0.07199786603450775</v>
       </c>
       <c r="H321" t="n">
         <v>0.07656713575124741</v>
@@ -12093,7 +12093,7 @@
         <v>0.04729479604820933</v>
       </c>
       <c r="L323" t="n">
-        <v>0.04427374367804143</v>
+        <v>0.04427994063328623</v>
       </c>
     </row>
     <row r="324">
@@ -12210,10 +12210,10 @@
         <v>0.2010125815868378</v>
       </c>
       <c r="K326" t="n">
-        <v>0.1989881247282028</v>
+        <v>0.1989005655050278</v>
       </c>
       <c r="L326" t="n">
-        <v>0.1920940279960632</v>
+        <v>0.1920307278633118</v>
       </c>
     </row>
     <row r="327">
@@ -12244,10 +12244,10 @@
         <v>0.0371405880327779</v>
       </c>
       <c r="I327" t="n">
-        <v>0.03691718535716288</v>
+        <v>0.03693235178981308</v>
       </c>
       <c r="J327" t="n">
-        <v>0.03713866385640085</v>
+        <v>0.03715386384310558</v>
       </c>
       <c r="K327" t="n">
         <v>0.03900457273851143</v>
@@ -12576,10 +12576,10 @@
         <v>0.04620950296521187</v>
       </c>
       <c r="K336" t="n">
-        <v>0.04188967496156693</v>
+        <v>0.04189056158065796</v>
       </c>
       <c r="L336" t="n">
-        <v>0.0418587327003479</v>
+        <v>0.04185929521918297</v>
       </c>
     </row>
     <row r="337">
@@ -12619,7 +12619,7 @@
         <v>0.1297107395987686</v>
       </c>
       <c r="L337" t="n">
-        <v>0.1103907027243516</v>
+        <v>0.1104118673403006</v>
       </c>
     </row>
     <row r="338">
@@ -12816,10 +12816,10 @@
         <v>0.1488671749830246</v>
       </c>
       <c r="E343" t="n">
-        <v>0.09899639338254929</v>
+        <v>0.09891396760940552</v>
       </c>
       <c r="F343" t="n">
-        <v>0.1028641983866692</v>
+        <v>0.1027760431170464</v>
       </c>
       <c r="G343" t="n">
         <v>0.07924319803714752</v>
@@ -12862,16 +12862,16 @@
         <v>0.1412701308727264</v>
       </c>
       <c r="G344" t="n">
-        <v>0.09433844629615029</v>
+        <v>0.09447048513569646</v>
       </c>
       <c r="H344" t="n">
-        <v>0.09400740248663103</v>
+        <v>0.09396267126518637</v>
       </c>
       <c r="I344" t="n">
-        <v>0.09615657509700579</v>
+        <v>0.09620549614893228</v>
       </c>
       <c r="J344" t="n">
-        <v>0.09404617119873837</v>
+        <v>0.09413475158558351</v>
       </c>
       <c r="K344" t="n">
         <v>0.07894329087966651</v>
@@ -12902,7 +12902,7 @@
         <v>0.04933647811412811</v>
       </c>
       <c r="G345" t="n">
-        <v>0.04794206470251083</v>
+        <v>0.04797979816794395</v>
       </c>
       <c r="H345" t="n">
         <v>0.04873556271195412</v>
@@ -12914,7 +12914,7 @@
         <v>0.04847435280680656</v>
       </c>
       <c r="K345" t="n">
-        <v>0.04674837738275528</v>
+        <v>0.04672077670693398</v>
       </c>
       <c r="L345" t="n">
         <v>0.04233269020915031</v>
@@ -12948,10 +12948,10 @@
         <v>0.1233044043183327</v>
       </c>
       <c r="K346" t="n">
-        <v>0.09586342424154282</v>
+        <v>0.09587068855762482</v>
       </c>
       <c r="L346" t="n">
-        <v>0.09591275453567505</v>
+        <v>0.09591599553823471</v>
       </c>
     </row>
     <row r="347">
@@ -13058,10 +13058,10 @@
         <v>0.08022937923669815</v>
       </c>
       <c r="K349" t="n">
-        <v>0.06887264549732208</v>
+        <v>0.06838218122720718</v>
       </c>
       <c r="L349" t="n">
-        <v>0.06303457170724869</v>
+        <v>0.06274522095918655</v>
       </c>
     </row>
     <row r="350">
@@ -13342,22 +13342,22 @@
         <v>0.08480588947524033</v>
       </c>
       <c r="G357" t="n">
-        <v>0.07653415862510535</v>
+        <v>0.07660671505300218</v>
       </c>
       <c r="H357" t="n">
-        <v>0.07013675076503557</v>
+        <v>0.07013103932142796</v>
       </c>
       <c r="I357" t="n">
-        <v>0.0687720442495391</v>
+        <v>0.06876708029756809</v>
       </c>
       <c r="J357" t="n">
-        <v>0.06860503076525158</v>
+        <v>0.06865110144385705</v>
       </c>
       <c r="K357" t="n">
-        <v>0.06855862437741504</v>
+        <v>0.06858076989570944</v>
       </c>
       <c r="L357" t="n">
-        <v>0.05811621216357508</v>
+        <v>0.05813032005815562</v>
       </c>
     </row>
     <row r="358">
@@ -13385,7 +13385,7 @@
         <v>0.1638526022434235</v>
       </c>
       <c r="H358" t="n">
-        <v>0.1705112755298615</v>
+        <v>0.1732133626937866</v>
       </c>
       <c r="I358" t="n">
         <v>0.1704528778791428</v>
@@ -13425,19 +13425,19 @@
         <v>0.1057456433773041</v>
       </c>
       <c r="H359" t="n">
-        <v>0.1055610775947571</v>
+        <v>0.1056408956646919</v>
       </c>
       <c r="I359" t="n">
-        <v>0.1086911037564278</v>
+        <v>0.108763113617897</v>
       </c>
       <c r="J359" t="n">
-        <v>0.1073174029588699</v>
+        <v>0.1073885858058929</v>
       </c>
       <c r="K359" t="n">
-        <v>0.08536476641893387</v>
+        <v>0.08520794659852982</v>
       </c>
       <c r="L359" t="n">
-        <v>0.07184725999832153</v>
+        <v>0.07180486619472504</v>
       </c>
     </row>
     <row r="360">
@@ -13542,10 +13542,10 @@
         <v>0.2730605900287628</v>
       </c>
       <c r="I362" t="n">
-        <v>0.253370612859726</v>
+        <v>0.252853125333786</v>
       </c>
       <c r="J362" t="n">
-        <v>0.2580632269382477</v>
+        <v>0.2575529813766479</v>
       </c>
       <c r="K362" t="n">
         <v>0.2146764099597931</v>
@@ -13842,10 +13842,10 @@
         <v>0.2420238107442856</v>
       </c>
       <c r="K370" t="n">
-        <v>0.1867290437221527</v>
+        <v>0.1869014352560043</v>
       </c>
       <c r="L370" t="n">
-        <v>0.1804756969213486</v>
+        <v>0.1805689930915833</v>
       </c>
     </row>
     <row r="371">
@@ -13904,7 +13904,7 @@
         <v>0.0763101726770401</v>
       </c>
       <c r="G372" t="n">
-        <v>0.09122344106435776</v>
+        <v>0.09127319604158401</v>
       </c>
       <c r="H372" t="n">
         <v>0.08771619200706482</v>
@@ -13913,13 +13913,13 @@
         <v>0.08724301308393478</v>
       </c>
       <c r="J372" t="n">
-        <v>0.08633339405059814</v>
+        <v>0.08637436479330063</v>
       </c>
       <c r="K372" t="n">
-        <v>0.05796198174357414</v>
+        <v>0.05796176195144653</v>
       </c>
       <c r="L372" t="n">
-        <v>0.06268580257892609</v>
+        <v>0.06268714368343353</v>
       </c>
     </row>
     <row r="373">
